--- a/GraphTheory/Assignments/Book1.xlsx
+++ b/GraphTheory/Assignments/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study Stuff\Documents\CDS\Sem II\GraphTheory\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FCAB68-B6A2-4D2D-AE56-6CAEF1449D10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2D47EB-DE96-4D78-96D4-000EDC1F5D08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{58E71FE2-3818-44D5-8401-6413D0775B5C}"/>
   </bookViews>
@@ -750,7 +750,7 @@
   <dimension ref="B2:AM23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +759,7 @@
     <col min="2" max="2" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="18" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="3" style="1"/>
     <col min="22" max="22" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="31" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -3028,6 +3028,10 @@
       <c r="R19" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
+      </c>
+      <c r="S19" s="1">
+        <f>SUM(S3:S18)</f>
+        <v>64</v>
       </c>
       <c r="W19" s="1">
         <f>SUM(W3:W18)</f>
